--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H2">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I2">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J2">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N2">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O2">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P2">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q2">
-        <v>7.008518180806433</v>
+        <v>7.150232926525</v>
       </c>
       <c r="R2">
-        <v>7.008518180806433</v>
+        <v>28.6009317061</v>
       </c>
       <c r="S2">
-        <v>0.0316187983015227</v>
+        <v>0.02815766973464042</v>
       </c>
       <c r="T2">
-        <v>0.0316187983015227</v>
+        <v>0.01519607931961164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H3">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I3">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J3">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N3">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P3">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q3">
-        <v>1.524494467321699</v>
+        <v>1.559887350857</v>
       </c>
       <c r="R3">
-        <v>1.524494467321699</v>
+        <v>9.359324105142001</v>
       </c>
       <c r="S3">
-        <v>0.006877728191679694</v>
+        <v>0.006142847834472011</v>
       </c>
       <c r="T3">
-        <v>0.006877728191679694</v>
+        <v>0.004972741200922393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H4">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I4">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J4">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N4">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O4">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P4">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q4">
-        <v>2.728645180030873</v>
+        <v>3.026191403093666</v>
       </c>
       <c r="R4">
-        <v>2.728645180030873</v>
+        <v>18.157148418562</v>
       </c>
       <c r="S4">
-        <v>0.01231023154368002</v>
+        <v>0.01191716395224228</v>
       </c>
       <c r="T4">
-        <v>0.01231023154368002</v>
+        <v>0.009647149625114541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H5">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I5">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J5">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N5">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O5">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P5">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q5">
-        <v>3.450903371450812</v>
+        <v>3.520519620389666</v>
       </c>
       <c r="R5">
-        <v>3.450903371450812</v>
+        <v>21.123117722338</v>
       </c>
       <c r="S5">
-        <v>0.01556868582559527</v>
+        <v>0.01386383209944332</v>
       </c>
       <c r="T5">
-        <v>0.01556868582559527</v>
+        <v>0.01122301104329696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H6">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I6">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J6">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N6">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O6">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P6">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q6">
-        <v>4.104005548069056</v>
+        <v>4.308324735968667</v>
       </c>
       <c r="R6">
-        <v>4.104005548069056</v>
+        <v>25.849948415812</v>
       </c>
       <c r="S6">
-        <v>0.0185151440440145</v>
+        <v>0.01696621442568098</v>
       </c>
       <c r="T6">
-        <v>0.0185151440440145</v>
+        <v>0.01373444300944813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H7">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I7">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J7">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N7">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O7">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P7">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q7">
-        <v>2.930314887307262</v>
+        <v>3.15030165737</v>
       </c>
       <c r="R7">
-        <v>2.930314887307262</v>
+        <v>12.60120662948</v>
       </c>
       <c r="S7">
-        <v>0.01322006064498166</v>
+        <v>0.01240591104433088</v>
       </c>
       <c r="T7">
-        <v>0.01322006064498166</v>
+        <v>0.006695199213512104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H8">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J8">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N8">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O8">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P8">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q8">
-        <v>64.42631875363098</v>
+        <v>72.782042598525</v>
       </c>
       <c r="R8">
-        <v>64.42631875363098</v>
+        <v>436.69225559115</v>
       </c>
       <c r="S8">
-        <v>0.2906581284984655</v>
+        <v>0.2866162178436596</v>
       </c>
       <c r="T8">
-        <v>0.2906581284984655</v>
+        <v>0.2320207684985279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H9">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J9">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N9">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O9">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P9">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q9">
-        <v>14.01402749568287</v>
+        <v>15.878054433417</v>
       </c>
       <c r="R9">
-        <v>14.01402749568287</v>
+        <v>142.902489900753</v>
       </c>
       <c r="S9">
-        <v>0.06322402216084486</v>
+        <v>0.06252789487545876</v>
       </c>
       <c r="T9">
-        <v>0.06322402216084486</v>
+        <v>0.07592611296081291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H10">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J10">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N10">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O10">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P10">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q10">
-        <v>25.08327147037519</v>
+        <v>30.803526804587</v>
       </c>
       <c r="R10">
-        <v>25.08327147037519</v>
+        <v>277.231741241283</v>
       </c>
       <c r="S10">
-        <v>0.1131627087072597</v>
+        <v>0.1213045145995317</v>
       </c>
       <c r="T10">
-        <v>0.1131627087072597</v>
+        <v>0.1472971430828623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H11">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J11">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N11">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O11">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P11">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q11">
-        <v>31.72268300679325</v>
+        <v>35.83528139756299</v>
       </c>
       <c r="R11">
-        <v>31.72268300679325</v>
+        <v>322.5175325780669</v>
       </c>
       <c r="S11">
-        <v>0.1431162893066112</v>
+        <v>0.1411196011107952</v>
       </c>
       <c r="T11">
-        <v>0.1431162893066112</v>
+        <v>0.1713581241822431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H12">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J12">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N12">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O12">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P12">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q12">
-        <v>37.72637279170805</v>
+        <v>43.854330017462</v>
       </c>
       <c r="R12">
-        <v>37.72637279170805</v>
+        <v>394.6889701571581</v>
       </c>
       <c r="S12">
-        <v>0.1702018231494142</v>
+        <v>0.1726986734215036</v>
       </c>
       <c r="T12">
-        <v>0.1702018231494142</v>
+        <v>0.2097038291869636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H13">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J13">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N13">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O13">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P13">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q13">
-        <v>26.93713508444448</v>
+        <v>32.06684198697</v>
       </c>
       <c r="R13">
-        <v>26.93713508444448</v>
+        <v>192.40105192182</v>
       </c>
       <c r="S13">
-        <v>0.1215263796259308</v>
+        <v>0.1262794590582412</v>
       </c>
       <c r="T13">
-        <v>0.1215263796259308</v>
+        <v>0.1022253986766844</v>
       </c>
     </row>
   </sheetData>
